--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abner\Abner_projetos\auto_rune_summoner_wars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3F9F51-4870-49FF-BC13-160739C4A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B7551D-6EAA-45DA-8743-EBCE25C4E852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Nome</t>
   </si>
@@ -127,6 +127,33 @@
   </si>
   <si>
     <t>BONUS TARGET -&gt;</t>
+  </si>
+  <si>
+    <t>Guard</t>
+  </si>
+  <si>
+    <t>Dancsha</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>Rarity</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>HP</t>
   </si>
 </sst>
 </file>
@@ -448,10 +475,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -486,6 +513,9 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -540,11 +570,8 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
       <c r="K2">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -569,173 +596,50 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J36" t="s">
-        <v>29</v>
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>4725</v>
+      </c>
+      <c r="C3">
+        <v>351</v>
+      </c>
+      <c r="D3">
+        <v>315</v>
+      </c>
+      <c r="E3">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3">
+        <v>5000</v>
+      </c>
+      <c r="L3">
+        <v>500</v>
+      </c>
+      <c r="N3">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -746,15 +650,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D11EBE5-165B-4675-A19E-C1AEE5B2C334}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -762,100 +666,145 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>12</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>698</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>118</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>9</v>
       </c>
-      <c r="P2" t="b">
+      <c r="Q2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>236</v>
+      </c>
+      <c r="I3">
+        <v>99</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A3:A1048576" xr:uid="{28E113D1-9229-4E92-8157-DA49FE20648A}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{28E113D1-9229-4E92-8157-DA49FE20648A}">
       <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="x12ac">
           <x12ac:list>"Energy,"</x12ac:list>
@@ -865,8 +814,11 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D51537D4-8C1C-440C-931B-606D5D5C37C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{6CF318B3-A2AC-4551-A657-43DB4F1F39BE}">
       <formula1>"Energy,Guard,Swift,Blade,Rage,Focus,Endure,Fatal,Despair,Vampire,Violent,Nemesis,Will,Shield,Revenge,Destroy,Fight,Determination,Enhance,Accuracy,Tolerance,Seal,Intangible"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{C66A6679-2A08-4385-90FB-0964D3D20CCD}">
+      <formula1>"Normal,Magic,Rare,Hero,Legend"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
